--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77120.03964741025</v>
+        <v>5151068.340509113</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77120.03964741025</v>
+        <v>5151068.340509113</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188890124.380313</v>
+        <v>44166017.92363521</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12828.3964423917</v>
+        <v>1074112.672280454</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24478.78161874306</v>
+        <v>1944372.262429277</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36126.40550911564</v>
+        <v>2814631.8525781</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48022.16425485007</v>
+        <v>3684019.197399943</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59917.92300058449</v>
+        <v>4553406.542221787</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71813.6780879249</v>
+        <v>5422793.887043631</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83709.42226626704</v>
+        <v>6292181.23186547</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95605.18101200149</v>
+        <v>7161568.576687309</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107500.9397577359</v>
+        <v>8030955.921509148</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>119396.6985034703</v>
+        <v>8900343.266330985</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131292.4572492048</v>
+        <v>9769730.611152826</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>143188.186244203</v>
+        <v>10639117.95597467</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155083.9449899375</v>
+        <v>11508505.30079652</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166979.7037356719</v>
+        <v>12377892.64561837</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178875.4624814065</v>
+        <v>13247279.99044022</v>
       </c>
     </row>
   </sheetData>
